--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,22 +36,37 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Начислены пени</t>
-  </si>
-  <si>
-    <t>32568,47 х 117 х 0,1%=3810,51</t>
-  </si>
-  <si>
-    <t>Оплачены пени</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ на 93 дня. 14861,53 х (93-40) х 0,1% = 787,66</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ на 73 дня. 5276,96 х (73-40) х 0,1% = 174,14</t>
-  </si>
-  <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ на 79 дн. 18598,50 х (79-40) х 0,1% = 725,34</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>Нач пени за просрочку оплаты за ЭЭ на 79 дн.</t>
+  </si>
+  <si>
+    <t>Нач пени за просрочку оплаты за ЭЭ на 73 дн.</t>
+  </si>
+  <si>
+    <t>Нач пени за просрочку оплаты за ЭЭ на 93 дн.</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
+  </si>
+  <si>
+    <t>Нач пени за просрочку оплаты за ЭЭ на 104 дн.</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
   </si>
 </sst>
 </file>
@@ -65,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,27 +95,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -134,15 +122,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -157,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,48 +167,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -234,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,50 +193,32 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,530 +527,454 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>43798</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="16">
-        <v>-725.34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>43798</v>
-      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43496</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>57865</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30233</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43550</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
-        <v>68339</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C6)</f>
-        <v>3069</v>
-      </c>
-      <c r="E3" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>13779.810000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17">
-        <v>36047</v>
+      <c r="C4" s="3">
+        <v>61825</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C7)</f>
-        <v>1983</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.4300000000000002</v>
+        <f>SUM(C4,-C2)</f>
+        <v>3960</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
         <f>D4*E4</f>
-        <v>4818.6900000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>43718</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="16">
-        <v>-174.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>43718</v>
+        <v>18097.2</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUM(F4,F5)</f>
+        <v>22798.33</v>
+      </c>
+      <c r="H4" s="2">
+        <v>22798.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>32200</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(C5,-C3)</f>
+        <v>1967</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="6">
+        <f>D5*E5</f>
+        <v>4701.13</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43644</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="17">
-        <v>65270</v>
+      <c r="C6" s="3">
+        <v>64315</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C9)</f>
-        <v>955</v>
+        <f>SUM(C6,-C4)</f>
+        <v>2490</v>
       </c>
       <c r="E6" s="8">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="F6" s="6">
         <f>D6*E6</f>
-        <v>4287.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11379.300000000001</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>14861.53</v>
+      </c>
+      <c r="H6" s="2">
+        <v>14861.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17">
-        <v>34064</v>
+      <c r="C7" s="3">
+        <v>33657</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C10)</f>
-        <v>407</v>
+        <f>SUM(C7,-C5)</f>
+        <v>1457</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.39</v>
       </c>
       <c r="F7" s="6">
         <f>D7*E7</f>
-        <v>989.0100000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+        <v>3482.23</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>43644</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="15">
-        <v>-787.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>43644</v>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13">
+        <v>787.66</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43718</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>64315</v>
+      <c r="C9" s="11">
+        <v>65270</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C12)</f>
-        <v>2490</v>
+        <f>SUM(C9,-C6)</f>
+        <v>955</v>
       </c>
       <c r="E9" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F9" s="6">
         <f>D9*E9</f>
-        <v>11379.300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4287.95</v>
+      </c>
+      <c r="G9" s="12">
+        <f>SUM(F9,F10)</f>
+        <v>5276.96</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5276.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
-        <v>33657</v>
+      <c r="C10" s="11">
+        <v>34064</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(C10,-C13)</f>
-        <v>1457</v>
+        <f>SUM(C10,-C7)</f>
+        <v>407</v>
       </c>
       <c r="E10" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F10" s="6">
         <f>D10*E10</f>
-        <v>3482.23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43550</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6">
-        <v>3810.51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>43550</v>
+        <v>989.0100000000001</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>43718</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="13">
+        <v>174.14</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43798</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
-        <v>61825</v>
+      <c r="C12" s="11">
+        <v>68339</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM(C12,-C15)</f>
-        <v>3960</v>
+        <f>SUM(C12,-C9)</f>
+        <v>3069</v>
       </c>
       <c r="E12" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F12" s="6">
         <f>D12*E12</f>
-        <v>18097.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13779.810000000001</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>18598.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>18598.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
-        <v>32200</v>
+      <c r="C13" s="11">
+        <v>36047</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(C13,-C16)</f>
-        <v>1967</v>
+        <f>SUM(C13,-C10)</f>
+        <v>1983</v>
       </c>
       <c r="E13" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
         <f>D13*E13</f>
-        <v>4701.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>43496</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="6">
-        <v>-3810.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43496</v>
+        <v>4818.6900000000005</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>43798</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13">
+        <v>725.34</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>43903</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
-        <v>57865</v>
+      <c r="C15" s="11">
+        <v>71046</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C17)</f>
-        <v>5668</v>
+        <f>SUM(C15,-C12)</f>
+        <v>2707</v>
       </c>
       <c r="E15" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F15" s="6">
         <f>D15*E15</f>
-        <v>25902.760000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+        <v>12154.43</v>
+      </c>
+      <c r="G15" s="12">
+        <f>SUM(F15,F16)</f>
+        <v>16319.45</v>
+      </c>
+      <c r="H15" s="2">
+        <v>16319.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
-        <v>30233</v>
+      <c r="C16" s="11">
+        <v>37761</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D24" si="0">SUM(C16,-C18)</f>
-        <v>2789</v>
+        <f>SUM(C16,-C13)</f>
+        <v>1714</v>
       </c>
       <c r="E16" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F16" s="6">
         <f>D16*E16</f>
-        <v>6665.71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43337</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>52197</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>27444</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>444.15000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43330</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>52197</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>561</v>
-      </c>
-      <c r="E19" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" ref="F19:F24" si="1">D19*E19</f>
-        <v>2524.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>27255</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>3181</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="1"/>
-        <v>7475.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43288</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>51636</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>1523</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="1"/>
-        <v>6533.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>24074</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>1254</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="1"/>
-        <v>2721.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43253</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>50113</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>8672</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="1"/>
-        <v>37202.879999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>22820</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>1289</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="1"/>
-        <v>2797.13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>43211</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5">
-        <v>41441</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>21531</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <v>4165.0200000000004</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="12">
+        <f>SUM(G4:G16)</f>
+        <v>79541.91</v>
+      </c>
+      <c r="H17" s="12">
+        <f>SUM(H4:H16)</f>
+        <v>77854.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>43903</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1044.44</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="12">
+        <f>SUM(G17,G18)</f>
+        <v>80586.350000000006</v>
+      </c>
+      <c r="H19" s="12">
+        <f>SUM(H17,H18)</f>
+        <v>77854.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="12">
+        <f>SUM(H19,-G19)</f>
+        <v>-2731.5800000000017</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Нач пени за просрочку оплаты за ЭЭ на 93 дн.</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>к доплате</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -220,6 +220,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -710,12 +711,20 @@
       <c r="A8" s="10">
         <v>43644</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16" t="s">
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
       </c>
       <c r="G8" s="13">
         <v>787.66</v>
@@ -777,12 +786,20 @@
       <c r="A11" s="10">
         <v>43718</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>11</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
       </c>
       <c r="G11" s="13">
         <v>174.14</v>
@@ -844,12 +861,20 @@
       <c r="A14" s="9">
         <v>43798</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16" t="s">
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>10</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
       </c>
       <c r="G14" s="13">
         <v>725.34</v>
@@ -907,70 +932,111 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="12">
-        <f>SUM(G4:G16)</f>
-        <v>79541.91</v>
-      </c>
-      <c r="H17" s="12">
-        <f>SUM(H4:H16)</f>
-        <v>77854.77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>43903</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="16" t="s">
-        <v>15</v>
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1044.44</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>43986</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>72940</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C15)</f>
+        <v>1894</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="6">
+        <f>D18*E18</f>
+        <v>8504.0600000000013</v>
       </c>
       <c r="G18" s="12">
-        <v>1044.44</v>
-      </c>
-      <c r="H18" s="12"/>
+        <f>SUM(F18,F19)</f>
+        <v>11405.480000000001</v>
+      </c>
+      <c r="H18" s="2">
+        <v>11405.48</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="12">
-        <f>SUM(G17,G18)</f>
-        <v>80586.350000000006</v>
-      </c>
-      <c r="H19" s="12">
-        <f>SUM(H17,H18)</f>
-        <v>77854.77</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>38955</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C16)</f>
+        <v>1194</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="6">
+        <f>D19*E19</f>
+        <v>2901.42</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="F20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(G2:G19)</f>
+        <v>91991.83</v>
+      </c>
       <c r="H20" s="12">
-        <f>SUM(H19,-G19)</f>
+        <f>SUM(H2:H19)</f>
+        <v>89260.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="20">
+        <f>SUM(H20,-G20)</f>
         <v>-2731.5800000000017</v>
       </c>
     </row>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Т1</t>
   </si>
@@ -528,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1008,42 +1008,93 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="18" t="s">
+      <c r="A20" s="9">
+        <v>44012</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <v>74781</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C18)</f>
+        <v>1841</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="6">
+        <f>D20*E20</f>
+        <v>8266.09</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>9896.6200000000008</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9896.6200000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>39626</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(C21,-C19)</f>
+        <v>671</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="6">
+        <f>D21*E21</f>
+        <v>1630.5300000000002</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G22" s="12">
         <f>SUM(G2:G19)</f>
         <v>91991.83</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H22" s="12">
         <f>SUM(H2:H19)</f>
         <v>89260.25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="20">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="20">
+        <f>SUM(H22,-G22)</f>
         <v>-2731.5800000000017</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Т1</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Т</t>
+  </si>
+  <si>
+    <t>оплачены пени</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1059,36 +1062,62 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="12">
-        <f>SUM(G2:G19)</f>
-        <v>91991.83</v>
-      </c>
-      <c r="H22" s="12">
-        <f>SUM(H2:H19)</f>
-        <v>89260.25</v>
+      <c r="A22" s="17">
+        <v>44032</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2731.58</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="12">
+        <f>SUM(G2:G22)</f>
+        <v>101888.45</v>
+      </c>
+      <c r="H23" s="12">
+        <f>SUM(H2:H22)</f>
+        <v>101888.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="20">
-        <f>SUM(H22,-G22)</f>
-        <v>-2731.5800000000017</v>
+      <c r="G24" s="2"/>
+      <c r="H24" s="20">
+        <f>SUM(H23,-G23)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Т1</t>
   </si>
@@ -531,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1088,35 +1088,86 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="18" t="s">
-        <v>15</v>
+      <c r="A23" s="9">
+        <v>44085</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>77154</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(C23,-C20)</f>
+        <v>2373</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F23" s="6">
+        <f>D23*E23</f>
+        <v>11176.83</v>
       </c>
       <c r="G23" s="12">
-        <f>SUM(G2:G22)</f>
-        <v>101888.45</v>
-      </c>
-      <c r="H23" s="12">
-        <f>SUM(H2:H22)</f>
-        <v>101888.45</v>
+        <f>SUM(F23,F24)</f>
+        <v>12069.33</v>
+      </c>
+      <c r="H23" s="2">
+        <v>12069.33</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>39976</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(C24,-C21)</f>
+        <v>350</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F24" s="6">
+        <f>D24*E24</f>
+        <v>892.49999999999989</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="12">
+        <f>SUM(G2:G24)</f>
+        <v>113957.78</v>
+      </c>
+      <c r="H25" s="12">
+        <f>SUM(H2:H24)</f>
+        <v>113957.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="20">
-        <f>SUM(H23,-G23)</f>
+      <c r="G26" s="2"/>
+      <c r="H26" s="20">
+        <f>SUM(H25,-G25)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Т1</t>
   </si>
@@ -531,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1139,35 +1139,86 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="18" t="s">
-        <v>15</v>
+      <c r="A25" s="9">
+        <v>44130</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <v>78513</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SUM(C25,-C23)</f>
+        <v>1359</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F25" s="6">
+        <f>D25*E25</f>
+        <v>6400.89</v>
       </c>
       <c r="G25" s="12">
-        <f>SUM(G2:G24)</f>
-        <v>113957.78</v>
-      </c>
-      <c r="H25" s="12">
-        <f>SUM(H2:H24)</f>
-        <v>113957.78</v>
+        <f>SUM(F25,F26)</f>
+        <v>8150.1900000000005</v>
+      </c>
+      <c r="H25" s="2">
+        <v>8150.19</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>40662</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUM(C26,-C24)</f>
+        <v>686</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F26" s="6">
+        <f>D26*E26</f>
+        <v>1749.3</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="12">
+        <f>SUM(G2:G26)</f>
+        <v>122107.97</v>
+      </c>
+      <c r="H27" s="12">
+        <f>SUM(H2:H26)</f>
+        <v>122107.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="20">
-        <f>SUM(H25,-G25)</f>
+      <c r="G28" s="2"/>
+      <c r="H28" s="20">
+        <f>SUM(H27,-G27)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,35 +600,86 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="12" t="s">
+      <c r="A6" s="8">
+        <v>44172</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>80269</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C4)</f>
+        <v>1756</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6*E6</f>
+        <v>8270.76</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>10553.01</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10553.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>41557</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUM(C7,-C5)</f>
+        <v>895</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <f>D7*E7</f>
+        <v>2282.25</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G8" s="10">
         <f>SUM(G2:G5)</f>
         <v>8150.1900000000005</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H8" s="10">
         <f>SUM(H2:H5)</f>
         <v>8150.19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="13">
-        <f>SUM(H6,-G6)</f>
+      <c r="G9" s="2"/>
+      <c r="H9" s="13">
+        <f>SUM(H8,-G8)</f>
         <v>-9.0949470177292824E-13</v>
       </c>
     </row>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,14 +559,14 @@
         <v>78513</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>1359</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>6400.89</v>
       </c>
       <c r="G4" s="10">
@@ -586,14 +586,14 @@
         <v>40662</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>686</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>1749.3</v>
       </c>
       <c r="G5" s="2"/>
@@ -610,14 +610,14 @@
         <v>80269</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>1756</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>8270.76</v>
       </c>
       <c r="G6" s="10">
@@ -637,49 +637,151 @@
         <v>41557</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>895</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>2282.25</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="12" t="s">
+      <c r="A8" s="8">
+        <v>44235</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>83637</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>3368</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>15863.28</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>20121.78</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20121.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43227</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>1670</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>4258.5</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>44315</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>87090</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>3453</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <v>16263.63</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>20787.329999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20787.330000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>45001</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1774</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>4523.7</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G12" s="10">
         <f>SUM(G2:G5)</f>
         <v>8150.1900000000005</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H12" s="10">
         <f>SUM(H2:H5)</f>
         <v>8150.19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="13">
-        <f>SUM(H8,-G8)</f>
+      <c r="G13" s="2"/>
+      <c r="H13" s="13">
+        <f>SUM(H12,-G12)</f>
         <v>-9.0949470177292824E-13</v>
       </c>
     </row>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -753,36 +753,87 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="12" t="s">
-        <v>11</v>
+      <c r="A12" s="8">
+        <v>44377</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>89165</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
+        <v>2075</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>9773.25</v>
       </c>
       <c r="G12" s="10">
-        <f>SUM(G2:G5)</f>
-        <v>8150.1900000000005</v>
-      </c>
-      <c r="H12" s="10">
-        <f>SUM(H2:H5)</f>
-        <v>8150.19</v>
+        <f>SUM(F12,F13)</f>
+        <v>12636.9</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12636.9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>46124</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="3"/>
+        <v>1123</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>2863.6499999999996</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(G2:G13)</f>
+        <v>72249.209999999992</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(H2:H13)</f>
+        <v>72249.209999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="13">
-        <f>SUM(H12,-G12)</f>
-        <v>-9.0949470177292824E-13</v>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13">
+        <f>SUM(H14,-G14)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -804,36 +804,87 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="12" t="s">
-        <v>11</v>
+      <c r="A14" s="8">
+        <v>44459</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>90231</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
+        <v>1066</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>5287.36</v>
       </c>
       <c r="G14" s="10">
-        <f>SUM(G2:G13)</f>
-        <v>72249.209999999992</v>
-      </c>
-      <c r="H14" s="10">
-        <f>SUM(H2:H13)</f>
-        <v>72249.209999999992</v>
+        <f>SUM(F14,F15)</f>
+        <v>6541.5999999999995</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6224.46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>46592</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="5"/>
+        <v>468</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>1254.24</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(G2:G15)</f>
+        <v>78790.81</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H2:H15)</f>
+        <v>78473.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="13">
-        <f>SUM(H14,-G14)</f>
-        <v>0</v>
+      <c r="G17" s="2"/>
+      <c r="H17" s="13">
+        <f>SUM(H16,-G16)</f>
+        <v>-317.13999999999942</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/35ee.xlsx
+++ b/sputnik/personal/ee/35ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -471,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -855,36 +855,87 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="12" t="s">
-        <v>11</v>
+      <c r="A16" s="8">
+        <v>44543</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>93184</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="7">SUM(C16,-C14)</f>
+        <v>2953</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>14646.88</v>
       </c>
       <c r="G16" s="10">
-        <f>SUM(G2:G15)</f>
-        <v>78790.81</v>
-      </c>
-      <c r="H16" s="10">
-        <f>SUM(H2:H15)</f>
-        <v>78473.67</v>
+        <f>SUM(F16,F17)</f>
+        <v>18238.079999999998</v>
+      </c>
+      <c r="H16" s="2">
+        <v>17325.63</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>47932</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="7"/>
+        <v>1340</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="8"/>
+        <v>3591.2000000000003</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(G2:G17)</f>
+        <v>97028.89</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H2:H17)</f>
+        <v>95799.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="13">
-        <f>SUM(H16,-G16)</f>
-        <v>-317.13999999999942</v>
+      <c r="G19" s="2"/>
+      <c r="H19" s="13">
+        <f>SUM(H18,-G18)</f>
+        <v>-1229.5899999999965</v>
       </c>
     </row>
   </sheetData>
